--- a/results/FrequencyTables/26775808_sgRNA-11.xlsx
+++ b/results/FrequencyTables/26775808_sgRNA-11.xlsx
@@ -465,19 +465,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.00228310502283105</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="D2">
-        <v>0.0101010101010101</v>
+        <v>0.00228310502283105</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.00228310502283105</v>
       </c>
       <c r="F2">
-        <v>0.0303030303030303</v>
+        <v>0.045662100456621</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -486,52 +486,52 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0202020202020202</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="K2">
-        <v>0.0202020202020202</v>
+        <v>0.0114155251141553</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0101010101010101</v>
+        <v>0.0182648401826484</v>
       </c>
       <c r="P2">
-        <v>0.0202020202020202</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="Q2">
-        <v>0.0101010101010101</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="R2">
-        <v>0.97979797979798</v>
+        <v>0.988584474885845</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0101010101010101</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="W2">
-        <v>0.0101010101010101</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="X2">
-        <v>0.0303030303030303</v>
+        <v>0.0136986301369863</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,43 +539,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="C3">
-        <v>0.97979797979798</v>
+        <v>0.972602739726027</v>
       </c>
       <c r="D3">
-        <v>0.97979797979798</v>
+        <v>0.977168949771689</v>
       </c>
       <c r="E3">
-        <v>0.97979797979798</v>
+        <v>0.984018264840183</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="G3">
-        <v>0.0101010101010101</v>
+        <v>0.0159817351598174</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0.974885844748858</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.00228310502283105</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0101010101010101</v>
+        <v>0.0091324200913242</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.00228310502283105</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -587,25 +587,25 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0202020202020202</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="S3">
         <v>1</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.0114155251141553</v>
       </c>
       <c r="U3">
-        <v>0.97979797979798</v>
+        <v>0.974885844748858</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.00228310502283105</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,52 +613,52 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.97979797979798</v>
+        <v>0.970319634703196</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0101010101010101</v>
+        <v>0.0159817351598174</v>
       </c>
       <c r="E4">
-        <v>0.0202020202020202</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="F4">
-        <v>0.96969696969697</v>
+        <v>0.949771689497717</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.00228310502283105</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0114155251141553</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.988584474885845</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="M4">
-        <v>0.96969696969697</v>
+        <v>0.974885844748858</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.0091324200913242</v>
       </c>
       <c r="O4">
-        <v>0.97979797979798</v>
+        <v>0.970319634703196</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.0091324200913242</v>
       </c>
       <c r="Q4">
-        <v>0.98989898989899</v>
+        <v>0.990867579908676</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0202020202020202</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="V4">
-        <v>0.0202020202020202</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="W4">
-        <v>0.98989898989899</v>
+        <v>0.986301369863014</v>
       </c>
       <c r="X4">
-        <v>0.96969696969697</v>
+        <v>0.977168949771689</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0202020202020202</v>
+        <v>0.0114155251141553</v>
       </c>
       <c r="C5">
-        <v>0.0202020202020202</v>
+        <v>0.0228310502283105</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.0091324200913242</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.98989898989899</v>
+        <v>0.981735159817352</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="I5">
-        <v>0.97979797979798</v>
+        <v>0.986301369863014</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.00228310502283105</v>
       </c>
       <c r="K5">
-        <v>0.97979797979798</v>
+        <v>0.979452054794521</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.986301369863014</v>
       </c>
       <c r="M5">
-        <v>0.0202020202020202</v>
+        <v>0.0114155251141553</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.988584474885845</v>
       </c>
       <c r="O5">
-        <v>0.0101010101010101</v>
+        <v>0.0114155251141553</v>
       </c>
       <c r="P5">
-        <v>0.97979797979798</v>
+        <v>0.986301369863014</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.00228310502283105</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0.984018264840183</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="V5">
-        <v>0.96969696969697</v>
+        <v>0.981735159817352</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.00684931506849315</v>
       </c>
     </row>
   </sheetData>
